--- a/academycity/data/training/datasets/excel/tests/112_2_Fin_BRAVO_20230807.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_2_Fin_BRAVO_20230807.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://synrgai-my.sharepoint.com/personal/noamc_syn-rg-ai_com/Documents/מסמכים/2כשם/גדוד 112/כשג/fitnes_20230807/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="11_C8F3E1C4ADE4F96C7471F764369EA55BAAB03EC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E64F573-81ED-438F-A717-84518741D857}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="11_C8F3E1C4ADE4F96C7471F764369EA55BAAB03EC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718F9525-5265-4404-9BEB-5D4B50C22A65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$F$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$F$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -334,9 +334,6 @@
     <t>KAMULETA BANYINGELA ROBERT</t>
   </si>
   <si>
-    <t>NKULU WANKULUDOMINGO</t>
-  </si>
-  <si>
     <t>KAZADI MARCEL JOHN</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>MASIETA MBAYA PHILIPE</t>
+  </si>
+  <si>
+    <t>NKULU WA NKULU</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
         <v>112233</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="20">
         <v>44.5</v>
@@ -1483,7 +1483,7 @@
         <v>112208</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="20">
         <v>48</v>
@@ -1563,7 +1563,7 @@
         <v>112199</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="20">
         <v>49</v>
@@ -1603,7 +1603,7 @@
         <v>112192</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="20">
         <v>47</v>
@@ -1643,7 +1643,7 @@
         <v>112302</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="20">
         <v>50</v>
@@ -1843,7 +1843,7 @@
         <v>112330</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="20">
         <v>49</v>
@@ -2001,7 +2001,7 @@
         <v>112198</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="20">
         <v>48</v>
@@ -2121,7 +2121,7 @@
         <v>112334</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="20">
         <v>50</v>
@@ -2141,7 +2141,7 @@
         <v>112340</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="20">
         <v>48</v>
@@ -2161,7 +2161,7 @@
         <v>112342</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="20">
         <v>46</v>
@@ -2401,7 +2401,7 @@
         <v>112339</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" s="20">
         <v>48</v>
@@ -2481,7 +2481,7 @@
         <v>112202</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="20">
         <v>47</v>
@@ -2521,7 +2521,7 @@
         <v>112204</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="20">
         <v>51</v>
@@ -2641,7 +2641,7 @@
         <v>112253</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" s="20">
         <v>46</v>
@@ -2681,7 +2681,7 @@
         <v>112305</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" s="20">
         <v>53</v>
@@ -2701,7 +2701,7 @@
         <v>112286</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67" s="20">
         <v>56</v>
@@ -2741,7 +2741,7 @@
         <v>112221</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" s="20">
         <v>49</v>
@@ -2761,7 +2761,7 @@
         <v>112294</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="20">
         <v>48</v>
@@ -2801,7 +2801,7 @@
         <v>112322</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" s="20">
         <v>48</v>
@@ -2901,7 +2901,7 @@
         <v>112207</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="20">
         <v>52</v>
@@ -2961,7 +2961,7 @@
         <v>112241</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="20">
         <v>50</v>
@@ -3141,7 +3141,7 @@
         <v>112206</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="20">
         <v>51</v>
@@ -3161,7 +3161,7 @@
         <v>112245</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="20">
         <v>46</v>
@@ -3201,7 +3201,7 @@
         <v>112291</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="20">
         <v>49</v>
@@ -3221,7 +3221,7 @@
         <v>112293</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" s="20">
         <v>51</v>
@@ -3341,7 +3341,7 @@
         <v>112280</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="20">
         <v>50</v>
@@ -3461,7 +3461,7 @@
         <v>112252</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="20">
         <v>43</v>
@@ -3559,7 +3559,7 @@
         <v>112239</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" s="20">
         <v>49</v>
@@ -3718,8 +3718,8 @@
       <c r="A118" s="5">
         <v>112325</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>95</v>
+      <c r="B118" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="C118" s="20">
         <v>59</v>
@@ -3739,7 +3739,7 @@
         <v>112272</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="20">
         <v>50</v>
@@ -3759,7 +3759,7 @@
         <v>112246</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="20">
         <v>46</v>
@@ -3779,7 +3779,7 @@
         <v>112250</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" s="20">
         <v>55</v>
@@ -3799,7 +3799,7 @@
         <v>112301</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" s="20">
         <v>52</v>
@@ -3819,7 +3819,7 @@
         <v>112185</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="20">
         <v>51</v>
@@ -3839,7 +3839,7 @@
         <v>112546</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C124" s="20">
         <v>60</v>
@@ -3859,7 +3859,7 @@
         <v>112159</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C125" s="20">
         <v>45</v>
@@ -3879,7 +3879,7 @@
         <v>112057</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" s="20">
         <v>49</v>
@@ -3899,7 +3899,7 @@
         <v>112298</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C127" s="20">
         <v>59</v>
@@ -3919,7 +3919,7 @@
         <v>112366</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C128" s="20">
         <v>55</v>
@@ -3939,7 +3939,7 @@
         <v>112236</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" s="20">
         <v>47</v>
@@ -3959,7 +3959,7 @@
         <v>112226</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" s="20">
         <v>53</v>
@@ -3979,7 +3979,7 @@
         <v>112249</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C131" s="20">
         <v>49</v>
@@ -3999,7 +3999,7 @@
         <v>112256</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C132" s="20">
         <v>50</v>
@@ -4019,7 +4019,7 @@
         <v>112166</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C133" s="20">
         <v>53</v>
@@ -4039,7 +4039,7 @@
         <v>112258</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C134" s="20">
         <v>50</v>
@@ -4059,7 +4059,7 @@
         <v>112320</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C135" s="20">
         <v>54</v>
@@ -4079,7 +4079,7 @@
         <v>112232</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C136" s="20">
         <v>49</v>
@@ -4099,7 +4099,7 @@
         <v>112282</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C137" s="20">
         <v>48</v>
@@ -4119,7 +4119,7 @@
         <v>112287</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C138" s="20">
         <v>53</v>
@@ -4139,7 +4139,7 @@
         <v>112290</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C139" s="20">
         <v>58</v>
@@ -4159,7 +4159,7 @@
         <v>112297</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140" s="20">
         <v>52</v>
@@ -4179,7 +4179,7 @@
         <v>112346</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C141" s="20">
         <v>54</v>
@@ -4199,7 +4199,7 @@
         <v>112337</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C142" s="20">
         <v>52</v>
@@ -4219,7 +4219,7 @@
         <v>112336</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C143" s="20">
         <v>48</v>
@@ -4239,7 +4239,7 @@
         <v>112328</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C144" s="20">
         <v>51</v>
@@ -4259,7 +4259,7 @@
         <v>112296</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145" s="20">
         <v>60</v>
@@ -4279,7 +4279,7 @@
         <v>112244</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="20">
         <v>50</v>
@@ -4299,7 +4299,7 @@
         <v>112347</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C147" s="20">
         <v>49</v>
@@ -4319,7 +4319,7 @@
         <v>112289</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" s="20">
         <v>52</v>
@@ -4339,7 +4339,7 @@
         <v>112512</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C149" s="20">
         <v>52</v>
@@ -4359,7 +4359,7 @@
         <v>112335</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" s="20">
         <v>53</v>
@@ -4379,7 +4379,7 @@
         <v>112140</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C151" s="20">
         <v>53</v>
@@ -4399,7 +4399,7 @@
         <v>112184</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C152" s="20">
         <v>56</v>
@@ -4419,7 +4419,7 @@
         <v>112548</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C153" s="20">
         <v>56</v>
@@ -4439,7 +4439,7 @@
         <v>112288</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="20">
         <v>53</v>
@@ -4459,7 +4459,7 @@
         <v>112212</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155" s="20">
         <v>55</v>
@@ -4479,7 +4479,7 @@
         <v>112467</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156" s="20">
         <v>60</v>
@@ -4499,7 +4499,7 @@
         <v>112535</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C157" s="20">
         <v>58</v>
@@ -4519,7 +4519,7 @@
         <v>112263</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C158" s="20">
         <v>69</v>
@@ -4539,7 +4539,7 @@
         <v>112235</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C159" s="20">
         <v>47</v>
@@ -4559,7 +4559,7 @@
         <v>112218</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C160" s="20">
         <v>53</v>
@@ -4579,7 +4579,7 @@
         <v>112324</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C161" s="20">
         <v>53</v>
@@ -4599,7 +4599,7 @@
         <v>112187</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C162" s="20"/>
       <c r="D162" s="22"/>
@@ -4611,7 +4611,7 @@
         <v>112201</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C163" s="20"/>
       <c r="D163" s="22"/>
@@ -4623,7 +4623,7 @@
         <v>112203</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C164" s="20"/>
       <c r="D164" s="22"/>
@@ -4635,7 +4635,7 @@
         <v>112222</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="20"/>
       <c r="D165" s="22"/>
@@ -4647,7 +4647,7 @@
         <v>112217</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="20"/>
       <c r="D166" s="22"/>
@@ -4659,7 +4659,7 @@
         <v>112259</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="20"/>
       <c r="D167" s="22"/>
@@ -4671,7 +4671,7 @@
         <v>112255</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="20"/>
       <c r="D168" s="22"/>
@@ -4683,7 +4683,7 @@
         <v>112283</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="20"/>
       <c r="D169" s="22"/>
@@ -4695,7 +4695,7 @@
         <v>112306</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170" s="20"/>
       <c r="D170" s="22"/>
@@ -4707,7 +4707,7 @@
         <v>112310</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" s="20"/>
       <c r="D171" s="22"/>
@@ -4719,7 +4719,7 @@
         <v>112220</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="20"/>
       <c r="D172" s="22"/>
@@ -4731,7 +4731,7 @@
         <v>112487</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="20"/>
       <c r="D173" s="22"/>
@@ -4743,7 +4743,7 @@
         <v>112164</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="20"/>
       <c r="D174" s="22"/>
@@ -4755,7 +4755,7 @@
         <v>112180</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C175" s="20"/>
       <c r="D175" s="22"/>
@@ -4767,7 +4767,7 @@
         <v>112162</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="20"/>
       <c r="D176" s="22"/>
@@ -4779,7 +4779,7 @@
         <v>112158</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="20"/>
       <c r="D177" s="22"/>
@@ -4791,7 +4791,7 @@
         <v>112285</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="20"/>
       <c r="D178" s="22"/>
@@ -4803,7 +4803,7 @@
         <v>112536</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C179" s="20"/>
       <c r="D179" s="22"/>
@@ -4815,7 +4815,7 @@
         <v>112300</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C180" s="20"/>
       <c r="D180" s="22"/>
@@ -4827,7 +4827,7 @@
         <v>112160</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C181" s="20"/>
       <c r="D181" s="22"/>
@@ -4839,7 +4839,7 @@
         <v>112266</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C182" s="20"/>
       <c r="D182" s="25"/>
@@ -4851,7 +4851,7 @@
         <v>112312</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C183" s="20"/>
       <c r="D183" s="25"/>
@@ -4863,7 +4863,7 @@
         <v>112361</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" s="21"/>
       <c r="D184" s="25"/>
@@ -4875,7 +4875,7 @@
         <v>112519</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185" s="21"/>
       <c r="D185" s="25"/>
@@ -4887,7 +4887,7 @@
         <v>112530</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" s="21"/>
       <c r="D186" s="25"/>
@@ -4899,7 +4899,7 @@
         <v>112534</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="25"/>
@@ -4923,7 +4923,7 @@
         <v>112143</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C189" s="36"/>
       <c r="D189" s="35"/>
@@ -4935,7 +4935,7 @@
         <v>112521</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C190" s="36"/>
       <c r="D190" s="35"/>
@@ -4943,7 +4943,7 @@
       <c r="F190" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
